--- a/output.xlsx
+++ b/output.xlsx
@@ -397,24 +397,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>0</v>
+        <v>name</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Job Title</v>
+        <v xml:space="preserve">Frontend Developer </v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v xml:space="preserve">Digital Marketing &amp; Frontend Developer Inter </v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v xml:space="preserve">We are Currently Hiring for fresher IT SOFTWARE DEVELOPER AND TESTING </v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v xml:space="preserve">IT SOFTWARE DEVELOPER FOR FRESHER  </v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v xml:space="preserve">we need Java angular developers(3 years experience) Bangalore  </v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v xml:space="preserve">URGENT OPENING FOR IT JAVA DEVELOPER </v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v xml:space="preserve">We are Currently Opening For Fresher IT Software Developer And Testing </v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v xml:space="preserve">odoo forntend Developer </v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v xml:space="preserve">Full Stack Developer ReactJS, React Native, Node.js, Express.js </v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v xml:space="preserve">Python Fullstack Developer -Fresher -Spybrick Technologies </v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v xml:space="preserve">Urgent hiring for WordPress Developer in Pune </v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v xml:space="preserve">Java Full Stack Developer cum Technical Trainer </v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v xml:space="preserve">We Are Currently Hiring IT Developer Engineer </v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v xml:space="preserve">Java Springboot Developer </v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v xml:space="preserve">We are Currently Hiring for IT Developer  </v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v xml:space="preserve">We Are Currently Hiring for IT SOFTWARE DEVELOPER </v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v xml:space="preserve">PHP Developer </v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v xml:space="preserve">PHP developer </v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v xml:space="preserve">Python Developer </v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v xml:space="preserve">IT Hardware and Networking for freshers  </v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v xml:space="preserve">AEM Developer </v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v xml:space="preserve">AEM Developer </v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v xml:space="preserve">PYTHON FULL STACK DEVELOPER </v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v xml:space="preserve">Snaplogic Developer </v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v xml:space="preserve">WEB DEVELOPER </v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A26"/>
   </ignoredErrors>
 </worksheet>
 </file>